--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507046B-5850-446B-A144-B9097200745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68304D20-390A-4D99-9A0B-A2DB2A25049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="21285" windowHeight="15585" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="133">
   <si>
     <t>説明／備考</t>
   </si>
@@ -798,6 +798,60 @@
   <si>
     <t>やはた</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>着手予定日</t>
+    <rPh sb="0" eb="5">
+      <t>チャクシュヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対応完了予定日</t>
+    <rPh sb="0" eb="7">
+      <t>タイオウカンリョウヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>着手日</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対応完了日</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>planned_start_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>planned_end_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1440,50 +1494,80 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1539,40 +1623,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="56" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1946,40 +2000,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="67"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="68">
+      <c r="J2" s="67">
         <v>45546</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -2012,22 +2066,22 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="57" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2046,29 +2100,29 @@
       <c r="C5" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2111,6 +2165,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B2"/>
@@ -2119,14 +2181,6 @@
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2163,25 +2217,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2191,70 +2245,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="98">
+      <c r="O1" s="99">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2295,10 +2349,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2339,10 +2393,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2370,13 +2424,13 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
         <v>108</v>
       </c>
@@ -2409,10 +2463,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2441,10 +2495,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2470,11 +2524,11 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="70" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2501,10 +2555,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2523,8 +2577,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2543,8 +2597,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2563,8 +2617,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2583,8 +2637,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2603,8 +2657,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2623,8 +2677,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2643,8 +2697,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2663,8 +2717,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2683,24 +2737,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
@@ -2709,13 +2760,16 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2752,25 +2806,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2780,64 +2834,64 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2878,10 +2932,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2918,10 +2972,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2940,8 +2994,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2960,8 +3014,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2980,8 +3034,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3000,8 +3054,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3020,8 +3074,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3040,8 +3094,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3060,8 +3114,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3080,8 +3134,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3100,8 +3154,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3120,8 +3174,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3140,8 +3194,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3160,8 +3214,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3180,8 +3234,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3200,21 +3254,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -3228,11 +3280,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3269,25 +3323,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3297,70 +3351,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3401,10 +3455,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3445,10 +3499,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3476,11 +3530,11 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="86" t="s">
+      <c r="K8" s="55"/>
+      <c r="L8" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
         <v>95</v>
       </c>
@@ -3511,10 +3565,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="71"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3542,11 +3596,11 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="70" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3565,8 +3619,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3585,8 +3639,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3605,8 +3659,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3625,8 +3679,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3645,8 +3699,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3665,8 +3719,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3685,8 +3739,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3705,8 +3759,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3725,8 +3779,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3745,8 +3799,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3765,19 +3819,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L11:M11"/>
@@ -3785,19 +3846,12 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3834,25 +3888,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3862,70 +3916,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3966,10 +4020,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4010,10 +4064,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4041,13 +4095,13 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
         <v>104</v>
       </c>
@@ -4080,10 +4134,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4141,11 +4195,11 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="70" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4172,10 +4226,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4194,8 +4248,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4214,8 +4268,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4234,8 +4288,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4254,8 +4308,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4274,8 +4328,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4294,8 +4348,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4314,8 +4368,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4334,8 +4388,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4354,30 +4408,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4386,6 +4424,22 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4422,25 +4476,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -4450,70 +4504,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4554,10 +4608,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4598,10 +4652,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4629,13 +4683,13 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
         <v>104</v>
       </c>
@@ -4668,10 +4722,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4729,11 +4783,11 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="70" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4760,10 +4814,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4782,8 +4836,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4802,8 +4856,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4822,8 +4876,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4842,8 +4896,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4862,8 +4916,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4882,8 +4936,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4902,8 +4956,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4922,8 +4976,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4942,30 +4996,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4974,6 +5012,22 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5010,25 +5064,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5038,70 +5092,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5142,10 +5196,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5186,10 +5240,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5217,13 +5271,13 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
         <v>104</v>
       </c>
@@ -5256,10 +5310,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -5317,11 +5371,11 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="70" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5348,10 +5402,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5370,8 +5424,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5390,8 +5444,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5410,8 +5464,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5430,8 +5484,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5450,8 +5504,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5470,8 +5524,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5490,8 +5544,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5510,8 +5564,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5530,30 +5584,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5562,6 +5600,22 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5575,7 +5629,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5598,25 +5652,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5626,70 +5680,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5730,10 +5784,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5774,10 +5828,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5805,13 +5859,13 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="97" t="s">
+      <c r="K8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
         <v>104</v>
       </c>
@@ -5843,13 +5897,13 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="97" t="s">
+      <c r="K9" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39" t="s">
         <v>105</v>
       </c>
@@ -5881,13 +5935,13 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="97" t="s">
+      <c r="K10" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="87"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="39" t="s">
         <v>107</v>
       </c>
@@ -5920,10 +5974,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="87"/>
+      <c r="M11" s="97"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5965,13 +6019,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -5981,11 +6035,11 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="50"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5995,13 +6049,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -6012,10 +6066,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="50"/>
+      <c r="L14" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6025,29 +6079,27 @@
         <v>9</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
       <c r="G15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6056,18 +6108,28 @@
       <c r="A16" s="43">
         <v>10</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>132</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6076,18 +6138,28 @@
       <c r="A17" s="43">
         <v>11</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="B17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="G17" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="50"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6096,18 +6168,28 @@
       <c r="A18" s="43">
         <v>12</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="50"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6116,18 +6198,30 @@
       <c r="A19" s="43">
         <v>13</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="G19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6146,8 +6240,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6166,19 +6260,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L15:M15"/>
@@ -6189,13 +6285,11 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6232,25 +6326,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -6260,70 +6354,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6364,10 +6458,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -6408,10 +6502,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6442,10 +6536,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6473,13 +6567,13 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="97" t="s">
+      <c r="K9" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="71"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39" t="s">
         <v>106</v>
       </c>
@@ -6512,10 +6606,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6544,10 +6638,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6573,11 +6667,11 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="70" t="s">
+      <c r="K12" s="55"/>
+      <c r="L12" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6604,10 +6698,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="71"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6636,10 +6730,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="71"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6668,10 +6762,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="71"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6690,8 +6784,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6710,8 +6804,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6730,8 +6824,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6750,8 +6844,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6770,8 +6864,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6790,31 +6884,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6823,6 +6900,23 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6859,25 +6953,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -6887,70 +6981,70 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="92"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="94"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6991,10 +7085,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -7035,10 +7129,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7067,10 +7161,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7096,11 +7190,11 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="70" t="s">
+      <c r="K9" s="55"/>
+      <c r="L9" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="71"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7126,11 +7220,11 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="70" t="s">
+      <c r="K10" s="55"/>
+      <c r="L10" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="71"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7158,11 +7252,11 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="70" t="s">
+      <c r="K11" s="55"/>
+      <c r="L11" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7191,10 +7285,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7213,8 +7307,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7233,8 +7327,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="71"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7253,8 +7347,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="71"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7273,8 +7367,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7293,8 +7387,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7313,8 +7407,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7333,8 +7427,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7353,8 +7447,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7373,31 +7467,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7406,6 +7483,23 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68304D20-390A-4D99-9A0B-A2DB2A25049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFEA84F-AD56-4EEC-88E2-BDA151C1EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="855" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -373,13 +373,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>タスクの詳細</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>クラスコード</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -687,22 +680,6 @@
   <si>
     <t>0：未着手
 1：着手
-2：完了
-3：待ち</t>
-    <rPh sb="2" eb="5">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>0：未着手
-1：着手
 2：完了</t>
     <rPh sb="2" eb="5">
       <t>ミチャクシュ</t>
@@ -851,6 +828,32 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タスクの概要</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0：未着手
+1：着手
+2：完了
+3：休止</t>
+    <rPh sb="2" eb="5">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キュウシ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1497,6 +1500,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,11 +1545,59 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,60 +1625,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1982,7 +1985,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -2000,40 +2003,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="66"/>
+      <c r="J1" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <v>45546</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -2066,22 +2069,22 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2098,31 +2101,31 @@
         <v>43881</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2165,6 +2168,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -2173,14 +2184,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2193,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B49CE5C-2A71-4F39-8D38-E2DD7BB4D797}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2217,30 +2220,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -2248,67 +2251,67 @@
       <c r="O1" s="99">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2349,10 +2352,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2393,10 +2396,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2406,13 +2409,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>90</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -2425,17 +2428,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="97"/>
+        <v>90</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -2463,10 +2466,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="97"/>
+      <c r="L9" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2495,10 +2498,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="81"/>
+      <c r="L10" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2525,10 +2528,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2555,10 +2558,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2577,8 +2580,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2597,8 +2600,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2617,8 +2620,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2637,8 +2640,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2657,8 +2660,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2677,8 +2680,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2697,8 +2700,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2717,8 +2720,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2737,21 +2740,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
@@ -2765,11 +2766,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2806,25 +2809,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2834,64 +2837,64 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2932,10 +2935,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2972,10 +2975,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2994,8 +2997,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3014,8 +3017,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3034,8 +3037,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3054,8 +3057,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3074,8 +3077,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3094,8 +3097,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3114,8 +3117,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3134,8 +3137,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3154,8 +3157,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3174,8 +3177,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3194,8 +3197,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3214,8 +3217,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3234,8 +3237,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3254,19 +3257,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -3280,13 +3285,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3323,30 +3326,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -3354,67 +3357,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3455,10 +3458,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3499,10 +3502,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3512,13 +3515,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>103</v>
-      </c>
       <c r="D8" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -3531,12 +3534,12 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="97"/>
+      <c r="L8" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3546,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>100</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>41</v>
@@ -3565,10 +3568,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" s="81"/>
+      <c r="L9" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3578,13 +3581,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>98</v>
-      </c>
       <c r="D10" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="37">
         <v>2</v>
@@ -3597,10 +3600,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="81"/>
+      <c r="L10" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3619,8 +3622,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3639,8 +3642,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3659,8 +3662,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3679,8 +3682,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3699,8 +3702,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3719,8 +3722,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3739,8 +3742,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3759,8 +3762,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3779,8 +3782,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3799,8 +3802,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3819,26 +3822,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L11:M11"/>
@@ -3852,6 +3843,18 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3888,30 +3891,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -3919,67 +3922,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4020,10 +4023,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4064,10 +4067,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4083,7 +4086,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -4096,17 +4099,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -4134,10 +4137,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4196,10 +4199,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4226,10 +4229,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4248,8 +4251,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4268,8 +4271,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4288,8 +4291,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4308,8 +4311,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4328,8 +4331,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4348,8 +4351,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4368,8 +4371,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4388,8 +4391,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4408,14 +4411,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4429,17 +4443,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4476,30 +4479,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -4507,67 +4510,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4608,10 +4611,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4652,10 +4655,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4671,7 +4674,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -4684,17 +4687,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -4722,10 +4725,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4784,10 +4787,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4814,10 +4817,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4836,8 +4839,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4856,8 +4859,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4876,8 +4879,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4896,8 +4899,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4916,8 +4919,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4936,8 +4939,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4956,8 +4959,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4976,8 +4979,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4996,14 +4999,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5017,17 +5031,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5041,7 +5044,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5064,30 +5067,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -5095,67 +5098,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5196,10 +5199,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5240,10 +5243,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5259,7 +5262,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -5272,17 +5275,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -5310,10 +5313,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -5372,10 +5375,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5402,10 +5405,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5424,8 +5427,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5444,8 +5447,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5464,8 +5467,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5484,8 +5487,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5504,8 +5507,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5524,8 +5527,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5544,8 +5547,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5564,8 +5567,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5584,14 +5587,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5605,17 +5619,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5628,8 +5631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E48A1-F8F0-4D48-9349-72F3EF6B6500}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5652,30 +5655,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -5683,67 +5686,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5784,10 +5787,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5828,10 +5831,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5847,7 +5850,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -5860,17 +5863,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -5879,13 +5882,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>63</v>
-      </c>
       <c r="D9" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="37">
         <v>2</v>
@@ -5898,17 +5901,17 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="97"/>
+        <v>90</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="88"/>
       <c r="N9" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P9" s="40"/>
     </row>
@@ -5917,13 +5920,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>66</v>
-      </c>
       <c r="D10" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -5936,17 +5939,17 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="97"/>
+        <v>91</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="88"/>
       <c r="N10" s="39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P10" s="40"/>
     </row>
@@ -5974,10 +5977,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="96" t="s">
+      <c r="L11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="97"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6007,7 +6010,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="49" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="M12" s="50"/>
       <c r="N12" s="39"/>
@@ -6019,13 +6022,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -6036,10 +6039,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6049,13 +6052,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>130</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>132</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -6066,10 +6069,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6079,13 +6082,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
@@ -6096,10 +6099,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6109,13 +6112,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
@@ -6126,10 +6129,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6199,13 +6202,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>69</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
@@ -6218,10 +6221,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6240,8 +6243,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6260,21 +6263,17 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L15:M15"/>
@@ -6287,9 +6286,13 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6302,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0B96A-2CDA-4D1A-8026-F6AEDE3249AD}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6326,30 +6329,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -6357,67 +6360,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6458,10 +6461,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -6502,10 +6505,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6515,10 +6518,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>78</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>22</v>
@@ -6536,10 +6539,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="97"/>
+      <c r="L8" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6549,13 +6552,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>66</v>
-      </c>
       <c r="D9" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="37">
         <v>1</v>
@@ -6568,17 +6571,17 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="81"/>
+        <v>91</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="72"/>
       <c r="N9" s="39" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P9" s="40"/>
     </row>
@@ -6606,10 +6609,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="81"/>
+      <c r="L10" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6638,10 +6641,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6668,10 +6671,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6698,10 +6701,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80" t="s">
+      <c r="L13" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6711,13 +6714,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>75</v>
-      </c>
       <c r="D14" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -6730,10 +6733,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6743,13 +6746,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>69</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
@@ -6762,10 +6765,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6784,8 +6787,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6804,8 +6807,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6824,8 +6827,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6844,8 +6847,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6864,8 +6867,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6884,14 +6887,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6905,18 +6920,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6930,7 +6933,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6953,30 +6956,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -6984,67 +6987,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7085,10 +7088,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -7129,10 +7132,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7142,10 +7145,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>78</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>22</v>
@@ -7161,10 +7164,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="97"/>
+      <c r="L8" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7174,10 +7177,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>49</v>
@@ -7191,10 +7194,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55"/>
-      <c r="L9" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="81"/>
+      <c r="L9" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7204,10 +7207,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>49</v>
@@ -7221,10 +7224,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="81"/>
+      <c r="L10" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7234,10 +7237,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>41</v>
@@ -7253,10 +7256,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7266,13 +7269,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -7285,10 +7288,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7307,8 +7310,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7327,8 +7330,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7347,8 +7350,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7367,8 +7370,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7387,8 +7390,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7407,8 +7410,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7427,8 +7430,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7447,8 +7450,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7467,14 +7470,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7488,18 +7503,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFEA84F-AD56-4EEC-88E2-BDA151C1EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6408CE68-28CB-473A-B3DC-229D35E9D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="855" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="139">
   <si>
     <t>説明／備考</t>
   </si>
@@ -546,13 +546,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Slackテンプレートの詳細</t>
-    <rPh sb="12" eb="14">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>slack_cd</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -578,12 +571,6 @@
   <si>
     <t>memo</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>10：タグ
-20：クラス
-30：ステータス
-40：Slack</t>
   </si>
   <si>
     <t>コードの種類</t>
@@ -838,21 +825,66 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>process_cd</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>10：タグ
+20：クラス
+30：ステータス
+40：プロセス
+50：Slack</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>0：未着手
-1：着手
-2：完了
-3：休止</t>
+1：作業中
+2：休止中
+3：完了</t>
     <rPh sb="2" eb="5">
       <t>ミチャクシュ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="8" eb="11">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>キュウシチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>キュウシ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>status_emoji</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ステータス絵文字</t>
+    <rPh sb="5" eb="8">
+      <t>エモジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>’’</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ステータスに表示する絵文字</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>エモジ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1500,50 +1532,77 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1598,33 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2003,40 +2035,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="68"/>
+      <c r="J1" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="67">
         <v>45546</v>
       </c>
-      <c r="K2" s="70"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -2069,22 +2101,22 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2101,31 +2133,31 @@
         <v>43881</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2168,6 +2200,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B2"/>
@@ -2176,14 +2216,6 @@
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2196,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B49CE5C-2A71-4F39-8D38-E2DD7BB4D797}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2220,30 +2252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -2251,67 +2283,67 @@
       <c r="O1" s="99">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2352,10 +2384,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2396,10 +2428,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2412,10 +2444,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -2428,17 +2460,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -2466,10 +2498,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2479,10 +2511,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>41</v>
@@ -2498,10 +2530,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="72"/>
+      <c r="L10" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2511,15 +2543,17 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="37">
+        <v>40</v>
+      </c>
       <c r="F11" s="38"/>
       <c r="G11" s="36" t="s">
         <v>34</v>
@@ -2527,11 +2561,13 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="72"/>
+      <c r="K11" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2541,10 +2577,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>49</v>
@@ -2557,11 +2593,11 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="72"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2570,18 +2606,28 @@
       <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2600,8 +2646,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2619,9 +2665,9 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2640,8 +2686,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2660,8 +2706,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2680,8 +2726,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2700,8 +2746,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2720,8 +2766,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2740,19 +2786,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
@@ -2766,13 +2814,11 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2809,25 +2855,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2837,64 +2883,64 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2935,10 +2981,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2975,10 +3021,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2997,8 +3043,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3017,8 +3063,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3037,8 +3083,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3057,8 +3103,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3077,8 +3123,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3097,8 +3143,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3117,8 +3163,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3137,8 +3183,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3157,8 +3203,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3177,8 +3223,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3197,8 +3243,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3217,8 +3263,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3237,8 +3283,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3257,21 +3303,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -3285,11 +3329,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3302,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AF4AC3-0103-4495-9FD7-BC4BD1E920AA}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -3326,30 +3372,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -3357,67 +3403,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3458,10 +3504,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3502,10 +3548,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3515,13 +3561,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -3534,12 +3580,12 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="88"/>
+      <c r="L8" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3549,10 +3595,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>41</v>
@@ -3568,10 +3614,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="72"/>
+      <c r="L9" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3581,13 +3627,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="37">
         <v>2</v>
@@ -3600,10 +3646,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="72"/>
+      <c r="L10" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3622,8 +3668,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3642,8 +3688,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3662,8 +3708,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3682,8 +3728,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3702,8 +3748,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3722,8 +3768,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3742,8 +3788,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3762,8 +3808,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3782,8 +3828,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3802,8 +3848,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3822,14 +3868,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L11:M11"/>
@@ -3843,18 +3901,6 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3891,30 +3937,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -3922,67 +3968,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4023,10 +4069,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4067,10 +4113,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4086,7 +4132,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -4099,17 +4145,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -4137,10 +4183,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4199,10 +4245,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4229,10 +4275,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4251,8 +4297,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4271,8 +4317,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4291,8 +4337,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4311,8 +4357,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4331,8 +4377,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4351,8 +4397,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4371,8 +4417,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4391,8 +4437,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4411,25 +4457,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4443,6 +4478,17 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4479,30 +4525,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -4510,67 +4556,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4611,10 +4657,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4655,10 +4701,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4674,7 +4720,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -4687,17 +4733,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -4725,10 +4771,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4787,10 +4833,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4817,10 +4863,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4839,8 +4885,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4859,8 +4905,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4879,8 +4925,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4899,8 +4945,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4919,8 +4965,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4939,8 +4985,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4959,8 +5005,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4979,8 +5025,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4999,25 +5045,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5031,6 +5066,17 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5067,30 +5113,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -5098,67 +5144,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5199,10 +5245,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5243,10 +5289,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5262,7 +5308,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -5275,17 +5321,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -5313,10 +5359,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -5375,10 +5421,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5405,10 +5451,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5427,8 +5473,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5447,8 +5493,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5467,8 +5513,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5487,8 +5533,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5507,8 +5553,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5527,8 +5573,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5547,8 +5593,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5567,8 +5613,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5587,25 +5633,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5619,6 +5654,17 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5631,7 +5677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E48A1-F8F0-4D48-9349-72F3EF6B6500}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L19" sqref="L19:M19"/>
     </sheetView>
   </sheetViews>
@@ -5655,30 +5701,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -5686,67 +5732,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5787,10 +5833,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5831,10 +5877,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5850,7 +5896,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -5863,17 +5909,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -5888,7 +5934,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="37">
         <v>2</v>
@@ -5901,17 +5947,17 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P9" s="40"/>
     </row>
@@ -5926,7 +5972,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="37">
         <v>1</v>
@@ -5939,17 +5985,17 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="88"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P10" s="40"/>
     </row>
@@ -5977,10 +6023,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="88"/>
+      <c r="M11" s="97"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6010,7 +6056,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M12" s="50"/>
       <c r="N12" s="39"/>
@@ -6022,13 +6068,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -6039,10 +6085,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6052,13 +6098,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>128</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>130</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -6069,10 +6115,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6082,13 +6128,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
@@ -6099,10 +6145,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6112,13 +6158,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
@@ -6129,10 +6175,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6221,10 +6267,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="72"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6243,8 +6289,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6263,14 +6309,29 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
@@ -6278,21 +6339,6 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6305,8 +6351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0B96A-2CDA-4D1A-8026-F6AEDE3249AD}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6329,30 +6375,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -6360,67 +6406,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6461,10 +6507,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -6505,10 +6551,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6539,10 +6585,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6555,10 +6601,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="37">
         <v>1</v>
@@ -6571,17 +6617,17 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="72"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39" t="s">
         <v>132</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P9" s="40"/>
     </row>
@@ -6609,10 +6655,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="72"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6641,10 +6687,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6671,10 +6717,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6701,10 +6747,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="72"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6733,10 +6779,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="72"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6765,10 +6811,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="72"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6787,8 +6833,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6807,8 +6853,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6827,8 +6873,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6847,8 +6893,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6867,8 +6913,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6887,26 +6933,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6920,6 +6954,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6932,8 +6978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6369C30-5907-42B4-B92C-1476A584A68F}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6956,30 +7002,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -6987,67 +7033,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7088,10 +7134,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -7132,10 +7178,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7164,10 +7210,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7194,10 +7240,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55"/>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="72"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7224,10 +7270,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="72"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7237,10 +7283,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>41</v>
@@ -7256,10 +7302,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="72"/>
+      <c r="L11" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7288,10 +7334,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7310,8 +7356,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7330,8 +7376,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7350,8 +7396,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7370,8 +7416,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7390,8 +7436,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7410,8 +7456,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7430,8 +7476,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7450,8 +7496,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7470,26 +7516,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7503,6 +7537,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6408CE68-28CB-473A-B3DC-229D35E9D451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A31686D-238F-448C-9919-BE329356798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="255" windowWidth="12165" windowHeight="14820" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -27,12 +27,25 @@
   <definedNames>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
   <si>
     <t>説明／備考</t>
   </si>
@@ -885,6 +898,17 @@
     </rPh>
     <rPh sb="10" eb="13">
       <t>エモジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>接続先</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクサキ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1532,6 +1556,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,11 +1601,59 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,60 +1681,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2035,40 +2059,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <v>45546</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -2101,22 +2125,22 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2135,29 +2159,29 @@
       <c r="C5" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2200,6 +2224,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -2208,14 +2240,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2228,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B49CE5C-2A71-4F39-8D38-E2DD7BB4D797}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2252,25 +2276,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2283,67 +2307,67 @@
       <c r="O1" s="99">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2384,10 +2408,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2428,10 +2452,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2462,10 +2486,10 @@
       <c r="K8" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>104</v>
       </c>
@@ -2498,10 +2522,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2530,10 +2554,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2564,10 +2588,10 @@
       <c r="K11" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2594,10 +2618,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2624,10 +2648,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80" t="s">
+      <c r="L13" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2646,8 +2670,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2666,8 +2690,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="55"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2686,8 +2710,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2706,8 +2730,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2726,8 +2750,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2746,8 +2770,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2766,8 +2790,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2786,21 +2810,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
@@ -2814,11 +2836,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2855,25 +2879,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2883,64 +2907,64 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2981,10 +3005,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3021,10 +3045,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3043,8 +3067,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3063,8 +3087,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3083,8 +3107,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3103,8 +3127,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3123,8 +3147,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3143,8 +3167,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3163,8 +3187,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3183,8 +3207,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3203,8 +3227,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3223,8 +3247,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3243,8 +3267,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3263,8 +3287,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3283,8 +3307,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3303,19 +3327,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -3329,13 +3355,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3348,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AF4AC3-0103-4495-9FD7-BC4BD1E920AA}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -3372,25 +3396,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3403,67 +3427,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3504,10 +3528,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3548,10 +3572,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3580,10 +3604,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>131</v>
       </c>
@@ -3614,10 +3638,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3646,10 +3670,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3668,8 +3692,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3688,8 +3712,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3708,8 +3732,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3728,8 +3752,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3748,8 +3772,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3768,8 +3792,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3788,8 +3812,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3808,8 +3832,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3828,8 +3852,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3848,8 +3872,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3868,26 +3892,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L11:M11"/>
@@ -3901,6 +3913,18 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3914,7 +3938,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -3937,25 +3961,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3968,67 +3992,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4069,10 +4093,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4113,10 +4137,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4147,10 +4171,10 @@
       <c r="K8" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>101</v>
       </c>
@@ -4183,10 +4207,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4245,10 +4269,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4275,10 +4299,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4297,8 +4321,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4317,8 +4341,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4337,8 +4361,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4357,8 +4381,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4377,8 +4401,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4397,8 +4421,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4417,8 +4441,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4437,8 +4461,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4457,14 +4481,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4478,17 +4513,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4502,7 +4526,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -4525,25 +4549,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -4556,67 +4580,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4657,10 +4681,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4701,10 +4725,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4735,10 +4759,10 @@
       <c r="K8" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>101</v>
       </c>
@@ -4771,10 +4795,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4784,10 +4808,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>41</v>
@@ -4833,10 +4857,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4863,10 +4887,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4885,8 +4909,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4905,8 +4929,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4925,8 +4949,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4945,8 +4969,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4965,8 +4989,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4985,8 +5009,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5005,8 +5029,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5025,8 +5049,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5045,14 +5069,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5066,17 +5101,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5113,25 +5137,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5144,67 +5168,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5245,10 +5269,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5289,10 +5313,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5323,10 +5347,10 @@
       <c r="K8" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>101</v>
       </c>
@@ -5359,10 +5383,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -5421,10 +5445,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5451,10 +5475,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5473,8 +5497,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5493,8 +5517,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5513,8 +5537,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5533,8 +5557,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5553,8 +5577,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5573,8 +5597,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5593,8 +5617,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5613,8 +5637,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5633,14 +5657,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5654,17 +5689,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5677,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E48A1-F8F0-4D48-9349-72F3EF6B6500}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L19" sqref="L19:M19"/>
     </sheetView>
   </sheetViews>
@@ -5701,25 +5725,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5732,67 +5756,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5833,10 +5857,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5877,10 +5901,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5911,10 +5935,10 @@
       <c r="K8" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>101</v>
       </c>
@@ -5949,10 +5973,10 @@
       <c r="K9" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39" t="s">
         <v>102</v>
       </c>
@@ -5987,10 +6011,10 @@
       <c r="K10" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="96" t="s">
+      <c r="L10" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="97"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="39" t="s">
         <v>103</v>
       </c>
@@ -6023,10 +6047,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="96" t="s">
+      <c r="L11" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="97"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6085,10 +6109,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="80" t="s">
+      <c r="L13" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6115,10 +6139,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80" t="s">
+      <c r="L14" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="81"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6145,10 +6169,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80" t="s">
+      <c r="L15" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="81"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6175,10 +6199,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80" t="s">
+      <c r="L16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="81"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6267,10 +6291,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="81"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6289,8 +6313,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6309,19 +6333,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="A1:B2"/>
@@ -6332,13 +6358,11 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6375,25 +6399,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -6406,67 +6430,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6507,10 +6531,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -6551,10 +6575,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6585,10 +6609,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6619,10 +6643,10 @@
       <c r="K9" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39" t="s">
         <v>132</v>
       </c>
@@ -6655,10 +6679,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6687,10 +6711,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6717,10 +6741,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6747,10 +6771,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80" t="s">
+      <c r="L13" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6779,10 +6803,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80" t="s">
+      <c r="L14" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="81"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6811,10 +6835,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80" t="s">
+      <c r="L15" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="81"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6833,8 +6857,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6853,8 +6877,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6873,8 +6897,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6893,8 +6917,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6913,8 +6937,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6933,14 +6957,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6954,18 +6990,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -7002,25 +7026,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -7033,67 +7057,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7134,10 +7158,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -7178,10 +7202,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7210,10 +7234,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7240,10 +7264,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55"/>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7270,10 +7294,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7302,10 +7326,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7334,10 +7358,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7356,8 +7380,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7376,8 +7400,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7396,8 +7420,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7416,8 +7440,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7436,8 +7460,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7456,8 +7480,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7476,8 +7500,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7496,8 +7520,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7516,14 +7540,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7537,18 +7573,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A31686D-238F-448C-9919-BE329356798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2753176D-626B-40AC-9AFF-B88A846108DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="255" windowWidth="12165" windowHeight="14820" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11250" yWindow="10720" windowWidth="19360" windowHeight="10240" tabRatio="855" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="cd" sheetId="173" r:id="rId3"/>
     <sheet name="memo" sheetId="166" r:id="rId4"/>
     <sheet name="link" sheetId="167" r:id="rId5"/>
-    <sheet name="manual" sheetId="168" r:id="rId6"/>
-    <sheet name="task" sheetId="169" r:id="rId7"/>
-    <sheet name="process" sheetId="170" r:id="rId8"/>
-    <sheet name="record" sheetId="171" r:id="rId9"/>
-    <sheet name="slack" sheetId="172" r:id="rId10"/>
+    <sheet name="task" sheetId="169" r:id="rId6"/>
+    <sheet name="process" sheetId="170" r:id="rId7"/>
+    <sheet name="record" sheetId="171" r:id="rId8"/>
+    <sheet name="slack" sheetId="172" r:id="rId9"/>
+    <sheet name="record_temp" sheetId="174" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１">#REF!</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="144">
   <si>
     <t>説明／備考</t>
   </si>
@@ -348,27 +348,6 @@
   </si>
   <si>
     <t>リンクの詳細</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>手順書の分類</t>
-    <rPh sb="0" eb="3">
-      <t>テジュンショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>手順書のタイトル</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>手順書の詳細</t>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
     </rPh>
@@ -706,10 +685,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>manual</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>task</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -733,13 +708,6 @@
     <t>リンク集</t>
     <rPh sb="3" eb="4">
       <t>シュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>作業手順書</t>
-    <rPh sb="0" eb="5">
-      <t>サギョウテジュンショ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -909,6 +877,50 @@
     <t>接続先</t>
     <rPh sb="0" eb="3">
       <t>セツゾクサキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>短縮名</t>
+    <rPh sb="0" eb="3">
+      <t>タンシュクメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title_short</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タスクの短縮名</t>
+    <rPh sb="4" eb="7">
+      <t>タンシュクメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>process_uid</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロセス識別子</t>
+    <rPh sb="4" eb="7">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>task_uid</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タスク識別子</t>
+    <rPh sb="3" eb="6">
+      <t>シキベツシ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1556,50 +1568,77 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1654,33 +1693,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2059,40 +2071,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="68"/>
+      <c r="J1" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="67">
         <v>45546</v>
       </c>
-      <c r="K2" s="70"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -2125,22 +2137,22 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="58" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2157,31 +2169,31 @@
         <v>43881</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2224,6 +2236,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B2"/>
@@ -2232,14 +2252,6 @@
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2249,11 +2261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B49CE5C-2A71-4F39-8D38-E2DD7BB4D797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BC8F12-BBD5-409D-A1FF-8719082F437E}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2276,98 +2288,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="99">
+      <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2408,10 +2420,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2452,30 +2464,28 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:16" s="41" customFormat="1" ht="58.5" customHeight="1">
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="32.25" customHeight="1">
       <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="37">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="36" t="s">
         <v>34</v>
@@ -2483,37 +2493,31 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>95</v>
-      </c>
+      <c r="K8" s="35">
+        <v>0</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="97"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="32.25" customHeight="1">
       <c r="A9" s="43">
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="37">
-        <v>40</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="36" t="s">
         <v>34</v>
@@ -2521,11 +2525,13 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="88"/>
+      <c r="K9" s="35">
+        <v>0</v>
+      </c>
+      <c r="L9" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2535,17 +2541,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="37">
-        <v>500</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="36" t="s">
         <v>34</v>
@@ -2553,11 +2557,11 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="72"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="50"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2566,32 +2570,18 @@
       <c r="A11" s="43">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="37">
-        <v>40</v>
-      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="L11" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="72"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2600,28 +2590,18 @@
       <c r="A12" s="43">
         <v>6</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>49</v>
-      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="72"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2630,28 +2610,18 @@
       <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>49</v>
-      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2670,8 +2640,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2689,9 +2659,9 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2710,8 +2680,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2730,8 +2700,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2750,8 +2720,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2770,8 +2740,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2790,8 +2760,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2810,32 +2780,31 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -2879,25 +2848,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2907,64 +2876,64 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3005,10 +2974,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3045,10 +3014,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3067,8 +3036,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3087,8 +3056,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3107,8 +3076,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3127,8 +3096,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3147,8 +3116,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3167,8 +3136,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3187,8 +3156,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3207,8 +3176,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3227,8 +3196,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3247,8 +3216,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3267,8 +3236,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3287,8 +3256,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3307,8 +3276,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3327,21 +3296,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -3355,11 +3322,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3396,30 +3365,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -3427,67 +3396,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3528,10 +3497,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3572,10 +3541,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3585,13 +3554,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -3604,12 +3573,12 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="88"/>
+      <c r="L8" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3619,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>41</v>
@@ -3638,10 +3607,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="72"/>
+      <c r="L9" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="81"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3651,13 +3620,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E10" s="37">
         <v>2</v>
@@ -3670,10 +3639,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="72"/>
+      <c r="L10" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3692,8 +3661,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3712,8 +3681,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3732,8 +3701,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3752,8 +3721,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3772,8 +3741,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3792,8 +3761,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3812,8 +3781,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3832,8 +3801,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3852,8 +3821,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3872,8 +3841,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3892,14 +3861,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L11:M11"/>
@@ -3913,18 +3894,6 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3938,7 +3907,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -3961,30 +3930,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -3992,67 +3961,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4093,10 +4062,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4137,10 +4106,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4156,7 +4125,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -4169,17 +4138,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -4207,10 +4176,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4269,10 +4238,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4299,10 +4268,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4321,8 +4290,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4341,8 +4310,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4361,8 +4330,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4381,8 +4350,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4401,8 +4370,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4421,8 +4390,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4441,8 +4410,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4461,8 +4430,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4481,25 +4450,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4513,6 +4471,17 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4549,30 +4518,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -4580,67 +4549,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4681,10 +4650,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4725,10 +4694,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4744,7 +4713,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -4757,17 +4726,17 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P8" s="40"/>
     </row>
@@ -4795,10 +4764,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4808,10 +4777,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>41</v>
@@ -4857,10 +4826,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4887,10 +4856,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="72"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4909,8 +4878,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4929,8 +4898,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4949,8 +4918,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4969,8 +4938,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4989,8 +4958,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5009,8 +4978,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5029,8 +4998,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5049,8 +5018,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5069,25 +5038,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5101,6 +5059,17 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5110,11 +5079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B524EE-43D0-4D08-B877-F20940E01A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E48A1-F8F0-4D48-9349-72F3EF6B6500}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5137,30 +5106,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -5168,67 +5137,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5269,10 +5238,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5313,10 +5282,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5332,7 +5301,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -5345,35 +5314,35 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="88"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="87.75" customHeight="1">
       <c r="A9" s="43">
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E9" s="37">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="36" t="s">
@@ -5382,30 +5351,36 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="35"/>
+      <c r="K9" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="97"/>
+      <c r="N9" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="60.75" customHeight="1">
       <c r="A10" s="43">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="E10" s="37">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="36" t="s">
@@ -5414,13 +5389,19 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="35"/>
+      <c r="K10" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="97"/>
+      <c r="N10" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -5428,15 +5409,17 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="37">
+        <v>40</v>
+      </c>
       <c r="F11" s="38"/>
       <c r="G11" s="36" t="s">
         <v>34</v>
@@ -5444,11 +5427,11 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="72"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="97"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5458,15 +5441,17 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="E12" s="37">
+        <v>10</v>
+      </c>
       <c r="F12" s="38"/>
       <c r="G12" s="36" t="s">
         <v>34</v>
@@ -5475,10 +5460,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="72"/>
+      <c r="L12" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="50"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5487,18 +5472,30 @@
       <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="37">
+        <v>500</v>
+      </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="50"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5507,18 +5504,28 @@
       <c r="A14" s="43">
         <v>8</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="36"/>
+      <c r="G14" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="50"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5527,18 +5534,28 @@
       <c r="A15" s="43">
         <v>9</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="L15" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="50"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5547,18 +5564,28 @@
       <c r="A16" s="43">
         <v>10</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="50"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5567,18 +5594,28 @@
       <c r="A17" s="43">
         <v>11</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="B17" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>123</v>
+      </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="G17" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="50"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5587,18 +5624,28 @@
       <c r="A18" s="43">
         <v>12</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="50"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5607,18 +5654,28 @@
       <c r="A19" s="43">
         <v>13</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="50"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5627,18 +5684,30 @@
       <c r="A20" s="43">
         <v>14</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
+      <c r="B20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="50"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5657,35 +5726,27 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L9:M9"/>
+  <mergeCells count="16">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
@@ -5698,11 +5759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E48A1-F8F0-4D48-9349-72F3EF6B6500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0B96A-2CDA-4D1A-8026-F6AEDE3249AD}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:M19"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5725,30 +5786,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -5756,67 +5817,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5857,10 +5918,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5901,26 +5962,26 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:16" s="41" customFormat="1" ht="66.75" customHeight="1">
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
@@ -5932,22 +5993,18 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>95</v>
-      </c>
+      <c r="K8" s="35">
+        <v>0</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="97"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" ht="87.75" customHeight="1">
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="66.75" customHeight="1">
       <c r="A9" s="43">
         <v>3</v>
       </c>
@@ -5955,13 +6012,13 @@
         <v>61</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="36" t="s">
@@ -5971,35 +6028,35 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="88"/>
+        <v>87</v>
+      </c>
+      <c r="L9" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="81"/>
       <c r="N9" s="39" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16" s="41" customFormat="1" ht="60.75" customHeight="1">
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="43">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E10" s="37">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="36" t="s">
@@ -6008,19 +6065,13 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>95</v>
-      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="81"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -6028,16 +6079,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="37">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="36" t="s">
@@ -6047,10 +6098,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="88"/>
+      <c r="L11" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6060,17 +6111,15 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="37">
-        <v>500</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E12" s="37"/>
       <c r="F12" s="38"/>
       <c r="G12" s="36" t="s">
         <v>34</v>
@@ -6078,11 +6127,11 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" s="50"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6092,13 +6141,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -6108,11 +6157,11 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" s="72"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6122,27 +6171,29 @@
         <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6152,27 +6203,29 @@
         <v>9</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
       <c r="G15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6181,28 +6234,18 @@
       <c r="A16" s="43">
         <v>10</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>128</v>
-      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="37"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6211,28 +6254,18 @@
       <c r="A17" s="43">
         <v>11</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>49</v>
-      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="50"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6241,28 +6274,18 @@
       <c r="A18" s="43">
         <v>12</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>49</v>
-      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="50"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6271,30 +6294,18 @@
       <c r="A19" s="43">
         <v>13</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>68</v>
-      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6313,8 +6324,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6333,36 +6344,39 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
+  <mergeCells count="25">
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6372,11 +6386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0B96A-2CDA-4D1A-8026-F6AEDE3249AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6369C30-5907-42B4-B92C-1476A584A68F}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M8"/>
+      <selection activeCell="B9" sqref="B9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6399,30 +6413,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -6430,67 +6444,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6531,10 +6545,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -6575,10 +6589,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6588,17 +6602,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="37">
-        <v>2</v>
-      </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="36" t="s">
         <v>34</v>
@@ -6609,30 +6621,28 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="88"/>
+      <c r="L8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="97"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" ht="66.75" customHeight="1">
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="43">
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="37">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="36" t="s">
         <v>34</v>
@@ -6640,19 +6650,13 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>95</v>
-      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="81"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -6660,17 +6664,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="37">
-        <v>40</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="36" t="s">
         <v>34</v>
@@ -6678,11 +6680,11 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="72"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6692,16 +6694,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="37">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="36" t="s">
@@ -6710,11 +6712,11 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="72"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6724,27 +6726,29 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
       <c r="G12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="72"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6753,28 +6757,18 @@
       <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>49</v>
-      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6783,30 +6777,18 @@
       <c r="A14" s="43">
         <v>8</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>68</v>
-      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6815,30 +6797,18 @@
       <c r="A15" s="43">
         <v>9</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>68</v>
-      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="72"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6857,8 +6827,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6877,8 +6847,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6897,8 +6867,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6917,8 +6887,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6937,8 +6907,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6957,26 +6927,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6990,6 +6948,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6999,11 +6969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6369C30-5907-42B4-B92C-1476A584A68F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B49CE5C-2A71-4F39-8D38-E2DD7BB4D797}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -7026,98 +6996,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="98">
+      <c r="O1" s="99">
         <v>45546</v>
       </c>
-      <c r="P1" s="93"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7158,10 +7128,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="84"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -7202,28 +7172,30 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="58.5" customHeight="1">
       <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="37"/>
+        <v>85</v>
+      </c>
+      <c r="E8" s="37">
+        <v>2</v>
+      </c>
       <c r="F8" s="38"/>
       <c r="G8" s="36" t="s">
         <v>34</v>
@@ -7231,15 +7203,19 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="35">
-        <v>0</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="35"/>
+      <c r="K8" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="97"/>
+      <c r="N8" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -7247,15 +7223,17 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="E9" s="37">
+        <v>40</v>
+      </c>
       <c r="F9" s="38"/>
       <c r="G9" s="36" t="s">
         <v>34</v>
@@ -7263,11 +7241,11 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="72"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="97"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7277,15 +7255,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="E10" s="37">
+        <v>500</v>
+      </c>
       <c r="F10" s="38"/>
       <c r="G10" s="36" t="s">
         <v>34</v>
@@ -7293,11 +7273,11 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="72"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="81"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7307,16 +7287,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="37">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="36" t="s">
@@ -7325,11 +7305,13 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="72"/>
+      <c r="K11" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="81"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7339,29 +7321,27 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
       <c r="G12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="72"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="81"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7370,18 +7350,28 @@
       <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="81"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7400,8 +7390,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7419,9 +7409,9 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7440,8 +7430,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="72"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7460,8 +7450,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7480,8 +7470,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7500,8 +7490,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7520,8 +7510,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7540,27 +7530,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -7568,11 +7545,24 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2753176D-626B-40AC-9AFF-B88A846108DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51596E0-AF00-49D1-AC1A-70DE7F71D04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11250" yWindow="10720" windowWidth="19360" windowHeight="10240" tabRatio="855" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11250" yWindow="10720" windowWidth="19360" windowHeight="10240" tabRatio="855" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="144">
   <si>
     <t>説明／備考</t>
   </si>
@@ -1568,6 +1568,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,11 +1613,59 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,60 +1693,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2071,40 +2071,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="66"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="69">
         <v>45546</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -2137,22 +2137,22 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2171,29 +2171,29 @@
       <c r="C5" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -2236,6 +2236,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -2244,14 +2252,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2264,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BC8F12-BBD5-409D-A1FF-8719082F437E}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2288,25 +2288,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2319,67 +2319,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2420,10 +2420,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2464,10 +2464,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2496,10 +2496,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2528,10 +2528,10 @@
       <c r="K9" s="35">
         <v>0</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2580,8 +2580,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2600,8 +2600,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2620,8 +2620,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2640,8 +2640,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2660,8 +2660,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2680,8 +2680,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2700,8 +2700,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2720,8 +2720,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2740,8 +2740,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2760,8 +2760,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2780,30 +2780,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -2812,6 +2796,22 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2848,25 +2848,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2876,64 +2876,64 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2974,10 +2974,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3014,10 +3014,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3036,8 +3036,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3056,8 +3056,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3076,8 +3076,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3096,8 +3096,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3116,8 +3116,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3136,8 +3136,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3156,8 +3156,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3176,8 +3176,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3196,8 +3196,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3216,8 +3216,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3236,8 +3236,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3256,8 +3256,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3276,8 +3276,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3296,19 +3296,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -3322,13 +3324,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3365,25 +3365,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3396,67 +3396,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3497,10 +3497,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -3541,10 +3541,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3573,10 +3573,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>126</v>
       </c>
@@ -3607,10 +3607,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3639,10 +3639,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3661,8 +3661,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3681,8 +3681,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3701,8 +3701,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -3721,8 +3721,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -3741,8 +3741,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3761,8 +3761,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -3781,8 +3781,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -3801,8 +3801,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -3821,8 +3821,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -3841,8 +3841,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -3861,26 +3861,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L11:M11"/>
@@ -3894,6 +3882,18 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -3930,25 +3930,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3961,67 +3961,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4062,10 +4062,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4106,10 +4106,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4140,10 +4140,10 @@
       <c r="K8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>98</v>
       </c>
@@ -4176,10 +4176,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4238,10 +4238,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4268,10 +4268,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4290,8 +4290,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4310,8 +4310,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4330,8 +4330,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4350,8 +4350,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4370,8 +4370,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4390,8 +4390,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4410,8 +4410,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4430,8 +4430,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4450,14 +4450,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4471,17 +4482,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4495,7 +4495,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -4518,25 +4518,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -4549,67 +4549,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4650,10 +4650,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -4694,10 +4694,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4728,10 +4728,10 @@
       <c r="K8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>98</v>
       </c>
@@ -4764,10 +4764,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4826,10 +4826,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -4856,10 +4856,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -4878,8 +4878,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4898,8 +4898,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4918,8 +4918,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4938,8 +4938,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -4958,8 +4958,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4978,8 +4978,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4998,8 +4998,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5018,8 +5018,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5038,14 +5038,25 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5059,17 +5070,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5082,8 +5082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E48A1-F8F0-4D48-9349-72F3EF6B6500}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" activeCellId="1" sqref="B7:B11 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5106,25 +5106,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5137,67 +5137,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5238,10 +5238,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5282,10 +5282,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5316,10 +5316,10 @@
       <c r="K8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>98</v>
       </c>
@@ -5354,10 +5354,10 @@
       <c r="K9" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39" t="s">
         <v>99</v>
       </c>
@@ -5392,10 +5392,10 @@
       <c r="K10" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="96" t="s">
+      <c r="L10" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="97"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="39" t="s">
         <v>100</v>
       </c>
@@ -5428,10 +5428,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="96" t="s">
+      <c r="L11" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="97"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5726,21 +5726,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L21:M21"/>
@@ -5750,6 +5743,13 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5762,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0B96A-2CDA-4D1A-8026-F6AEDE3249AD}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5786,25 +5786,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5817,67 +5817,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5918,10 +5918,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -5962,10 +5962,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5996,10 +5996,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6030,10 +6030,10 @@
       <c r="K9" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39" t="s">
         <v>127</v>
       </c>
@@ -6066,10 +6066,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6098,10 +6098,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6128,10 +6128,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6158,10 +6158,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80" t="s">
+      <c r="L13" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6190,10 +6190,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80" t="s">
+      <c r="L14" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="81"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6222,10 +6222,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80" t="s">
+      <c r="L15" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="81"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6244,8 +6244,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6264,8 +6264,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6284,8 +6284,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6304,8 +6304,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6324,8 +6324,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6344,14 +6344,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6365,18 +6377,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6390,7 +6390,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:M9"/>
+      <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6413,25 +6413,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -6444,67 +6444,67 @@
       <c r="O1" s="98">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6545,10 +6545,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -6589,10 +6589,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6621,10 +6621,10 @@
       <c r="K8" s="35">
         <v>0</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6651,10 +6651,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="55"/>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6681,10 +6681,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6713,10 +6713,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6726,29 +6726,27 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
       <c r="G12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="81"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6757,18 +6755,28 @@
       <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="L13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6777,18 +6785,30 @@
       <c r="A14" s="43">
         <v>8</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6807,8 +6827,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6827,8 +6847,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6847,8 +6867,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6867,8 +6887,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6887,8 +6907,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6907,8 +6927,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6927,14 +6947,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6948,18 +6980,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6972,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B49CE5C-2A71-4F39-8D38-E2DD7BB4D797}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6996,25 +7016,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -7027,67 +7047,67 @@
       <c r="O1" s="99">
         <v>45546</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="17"/>
       <c r="M2" s="47"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="95"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="88"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7128,10 +7148,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -7172,10 +7192,10 @@
       <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7206,10 +7226,10 @@
       <c r="K8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="39" t="s">
         <v>101</v>
       </c>
@@ -7242,10 +7262,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7274,10 +7294,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7308,10 +7328,10 @@
       <c r="K11" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7338,10 +7358,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="81"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7368,10 +7388,10 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="80" t="s">
+      <c r="L13" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7390,8 +7410,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7410,8 +7430,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="55"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7430,8 +7450,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7450,8 +7470,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7470,8 +7490,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7490,8 +7510,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7510,8 +7530,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7530,21 +7550,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
@@ -7558,11 +7576,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
+++ b/Java_framework/Document/WebSite/MyWorkBench/BasicDesign/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\Java_framework\Document\WebSite\MyWorkBench\BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51596E0-AF00-49D1-AC1A-70DE7F71D04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF09D68-434D-44D6-A41F-9512A2F56461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11250" yWindow="10720" windowWidth="19360" windowHeight="10240" tabRatio="855" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="855" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="145">
   <si>
     <t>説明／備考</t>
   </si>
@@ -922,6 +922,10 @@
     <rPh sb="3" eb="6">
       <t>シキベツシ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>timestamp</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2264,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BC8F12-BBD5-409D-A1FF-8719082F437E}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -2547,7 +2551,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
@@ -3341,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AF4AC3-0103-4495-9FD7-BC4BD1E920AA}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -3907,7 +3911,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -4495,7 +4499,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5082,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5E48A1-F8F0-4D48-9349-72F3EF6B6500}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" activeCellId="1" sqref="B7:B11 B20"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -5762,8 +5766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F0B96A-2CDA-4D1A-8026-F6AEDE3249AD}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:P13"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6117,7 +6121,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -6147,7 +6151,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -6390,7 +6394,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -6640,7 +6644,7 @@
         <v>79</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
@@ -6670,7 +6674,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
@@ -6732,7 +6736,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -6762,7 +6766,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -6992,8 +6996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B49CE5C-2A71-4F39-8D38-E2DD7BB4D797}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B13"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1"/>
@@ -7347,7 +7351,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
@@ -7377,7 +7381,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
